--- a/forWorking/HuayunTechRPA/Beijing_ExlGenerate_2022-8-18/Input/2022-11-11/党建表格输入配置表_2022-11-16—配置表—V7.xlsx
+++ b/forWorking/HuayunTechRPA/Beijing_ExlGenerate_2022-8-18/Input/2022-11-11/党建表格输入配置表_2022-11-16—配置表—V7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elitebook-820G2电脑转义Elitebook-830G6-20201219\信息系统部\陈凯统计工作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Beijing_PartyBuild_42ExlGeneration\forWorking\HuayunTechRPA\Beijing_ExlGenerate_2022-8-18\Input\2022-11-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95321570-7AC7-447B-B3F5-58B442C83BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="10020" tabRatio="888" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="888" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022年调研问卷" sheetId="3" r:id="rId1"/>
@@ -27,17 +28,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022年调研问卷'!$A$2:$K$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">行政机构组织!$A$1:$F$324</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zhangweiwei</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3637,12 +3649,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4194,7 +4206,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4235,19 +4247,19 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="13" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4280,7 +4292,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4326,16 +4338,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4348,6 +4357,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4398,10 +4410,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4413,68 +4428,14 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="7" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4483,6 +4444,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4509,6 +4473,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4518,51 +4500,81 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="百分比 2" xfId="5"/>
-    <cellStyle name="百分比 2 2" xfId="6"/>
-    <cellStyle name="百分比 2 2 2" xfId="9"/>
-    <cellStyle name="百分比 2 3" xfId="7"/>
-    <cellStyle name="百分比 3" xfId="14"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="15"/>
-    <cellStyle name="常规 2 2" xfId="11"/>
-    <cellStyle name="常规 2 2 2" xfId="10"/>
-    <cellStyle name="常规 2 2 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="12"/>
-    <cellStyle name="常规 2 3 2" xfId="13"/>
-    <cellStyle name="常规 2 3 2 2" xfId="16"/>
-    <cellStyle name="常规 2 3 3" xfId="2"/>
-    <cellStyle name="常规 2 4" xfId="17"/>
-    <cellStyle name="常规 2 4 2" xfId="18"/>
-    <cellStyle name="常规 3" xfId="19"/>
-    <cellStyle name="常规 3 2" xfId="20"/>
-    <cellStyle name="常规 3 2 2" xfId="21"/>
-    <cellStyle name="常规 3 2 2 2" xfId="22"/>
-    <cellStyle name="常规 3 2 3" xfId="23"/>
-    <cellStyle name="常规 3 3" xfId="24"/>
-    <cellStyle name="常规 3 3 2" xfId="25"/>
-    <cellStyle name="常规 4" xfId="26"/>
-    <cellStyle name="常规 4 2" xfId="27"/>
-    <cellStyle name="常规 4 2 2" xfId="28"/>
-    <cellStyle name="常规 4 2 2 2" xfId="30"/>
-    <cellStyle name="常规 4 3" xfId="31"/>
-    <cellStyle name="常规 4 3 2" xfId="32"/>
-    <cellStyle name="常规 4 4" xfId="29"/>
-    <cellStyle name="常规 5" xfId="33"/>
-    <cellStyle name="常规 6" xfId="4"/>
-    <cellStyle name="注释 2" xfId="34"/>
-    <cellStyle name="注释 2 2" xfId="35"/>
-    <cellStyle name="注释 2 2 2" xfId="36"/>
-    <cellStyle name="注释 2 3" xfId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="常规 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 4" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 3 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 3 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 3 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 4" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 4 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 4 2 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 4 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 4 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 5" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="注释 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="注释 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="注释 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="百分比 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="百分比 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="百分比 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="百分比 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4594,7 +4606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5787,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5795,30 +5813,30 @@
       <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="20.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="57"/>
-    <col min="2" max="2" width="20.109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="57" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" style="57"/>
+    <col min="2" max="2" width="20.1328125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="37.53125" style="58" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="59" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="59" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="59" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" style="59" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="6.86328125" style="59" customWidth="1"/>
     <col min="10" max="10" width="26" style="58" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="57" customWidth="1"/>
-    <col min="12" max="16384" width="8.109375" style="51"/>
+    <col min="11" max="11" width="5.46484375" style="57" customWidth="1"/>
+    <col min="12" max="16384" width="8.1328125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="76" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" s="76" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="87" t="s">
@@ -5846,10 +5864,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+    <row r="2" spans="1:11" ht="20.45" customHeight="1">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
@@ -5859,11 +5877,11 @@
       <c r="J2" s="88"/>
       <c r="K2" s="89"/>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -5894,9 +5912,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A4" s="81"/>
-      <c r="B4" s="85"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="53" t="s">
         <v>21</v>
       </c>
@@ -5925,9 +5943,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A5" s="81"/>
-      <c r="B5" s="86"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="53" t="s">
         <v>24</v>
       </c>
@@ -5956,9 +5974,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A6" s="81"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -5989,9 +6007,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A7" s="81"/>
-      <c r="B7" s="86"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="53" t="s">
         <v>31</v>
       </c>
@@ -6020,12 +6038,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A8" s="81"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="53" t="s">
@@ -6053,10 +6071,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A9" s="81"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="53" t="s">
         <v>42</v>
       </c>
@@ -6082,10 +6100,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A10" s="81"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="53" t="s">
         <v>46</v>
       </c>
@@ -6111,10 +6129,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A11" s="81"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="53" t="s">
         <v>48</v>
       </c>
@@ -6140,10 +6158,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A12" s="81"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="53" t="s">
         <v>50</v>
       </c>
@@ -6169,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A13" s="81"/>
       <c r="B13" s="77" t="s">
         <v>52</v>
@@ -6202,12 +6220,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A14" s="81"/>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -6235,10 +6253,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A15" s="81"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="53" t="s">
         <v>64</v>
       </c>
@@ -6264,10 +6282,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A16" s="81"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="53" t="s">
         <v>67</v>
       </c>
@@ -6293,10 +6311,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A17" s="81"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="53" t="s">
         <v>69</v>
       </c>
@@ -6322,9 +6340,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="52" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="52" customFormat="1" ht="204" customHeight="1">
       <c r="A18" s="81"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="53" t="s">
         <v>72</v>
       </c>
@@ -6353,9 +6371,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="52" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="52" customFormat="1" ht="204" customHeight="1">
       <c r="A19" s="81"/>
-      <c r="B19" s="85"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="53" t="s">
         <v>76</v>
       </c>
@@ -6384,9 +6402,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="52" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="52" customFormat="1" ht="267" customHeight="1">
       <c r="A20" s="81"/>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="83" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -6417,9 +6435,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="52" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="52" customFormat="1" ht="93" customHeight="1">
       <c r="A21" s="81"/>
-      <c r="B21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="53" t="s">
         <v>86</v>
       </c>
@@ -6448,9 +6466,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="52" customFormat="1" ht="172.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="52" customFormat="1" ht="173" customHeight="1">
       <c r="A22" s="81"/>
-      <c r="B22" s="85"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="53" t="s">
         <v>90</v>
       </c>
@@ -6479,9 +6497,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="52" customFormat="1" ht="202.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="52" customFormat="1" ht="203" customHeight="1">
       <c r="A23" s="81"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="53" t="s">
         <v>94</v>
       </c>
@@ -6510,9 +6528,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A24" s="81"/>
-      <c r="B24" s="85"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="53" t="s">
         <v>100</v>
       </c>
@@ -6541,9 +6559,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="52" customFormat="1" ht="262.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="52" customFormat="1" ht="263" customHeight="1">
       <c r="A25" s="81"/>
-      <c r="B25" s="85"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="53" t="s">
         <v>103</v>
       </c>
@@ -6572,9 +6590,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A26" s="81"/>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="83" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="53" t="s">
@@ -6605,9 +6623,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A27" s="81"/>
-      <c r="B27" s="86"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="53" t="s">
         <v>112</v>
       </c>
@@ -6636,9 +6654,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="52" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="52" customFormat="1" ht="75" customHeight="1">
       <c r="A28" s="81"/>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="53" t="s">
@@ -6665,9 +6683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="52" customFormat="1" ht="76.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="52" customFormat="1" ht="76.05" customHeight="1">
       <c r="A29" s="81"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="53" t="s">
         <v>120</v>
       </c>
@@ -6692,8 +6710,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="52" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+    <row r="30" spans="1:11" s="52" customFormat="1" ht="177" customHeight="1">
+      <c r="A30" s="79" t="s">
         <v>124</v>
       </c>
       <c r="B30" s="53" t="s">
@@ -6727,8 +6745,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="52" customFormat="1" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
+    <row r="31" spans="1:11" s="52" customFormat="1" ht="86" customHeight="1">
+      <c r="A31" s="79"/>
       <c r="B31" s="53" t="s">
         <v>130</v>
       </c>
@@ -6760,8 +6778,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="52" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
+    <row r="32" spans="1:11" s="52" customFormat="1" ht="82.05" customHeight="1">
+      <c r="A32" s="79"/>
       <c r="B32" s="53" t="s">
         <v>136</v>
       </c>
@@ -6793,8 +6811,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
+    <row r="33" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A33" s="79"/>
       <c r="B33" s="53" t="s">
         <v>141</v>
       </c>
@@ -6826,14 +6844,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A34" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="83" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -6861,10 +6879,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="52" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="52" customFormat="1" ht="100.05" customHeight="1">
       <c r="A35" s="81"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="53" t="s">
         <v>149</v>
       </c>
@@ -6890,9 +6908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A36" s="81"/>
-      <c r="B36" s="86"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="55" t="s">
         <v>153</v>
       </c>
@@ -6921,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A37" s="81"/>
       <c r="B37" s="53" t="s">
         <v>156</v>
@@ -6954,9 +6972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A38" s="81"/>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="79" t="s">
         <v>160</v>
       </c>
       <c r="C38" s="55" t="s">
@@ -6987,9 +7005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A39" s="81"/>
-      <c r="B39" s="82"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="55" t="s">
         <v>164</v>
       </c>
@@ -7018,12 +7036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="52" customFormat="1" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="52" customFormat="1" ht="77" customHeight="1">
       <c r="A40" s="81"/>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="83" t="s">
         <v>168</v>
       </c>
       <c r="D40" s="53" t="s">
@@ -7051,10 +7069,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
       <c r="A41" s="81"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="53" t="s">
         <v>173</v>
       </c>
@@ -7080,9 +7098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="52" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="52" customFormat="1" ht="123.75">
       <c r="A42" s="81"/>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="83" t="s">
         <v>176</v>
       </c>
       <c r="C42" s="78" t="s">
@@ -7113,9 +7131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="52" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="52" customFormat="1" ht="123.75">
       <c r="A43" s="81"/>
-      <c r="B43" s="86"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="78" t="s">
         <v>180</v>
       </c>
@@ -7144,8 +7162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="52" customFormat="1" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="83" t="s">
+    <row r="44" spans="1:11" s="52" customFormat="1" ht="113" customHeight="1">
+      <c r="A44" s="82" t="s">
         <v>183</v>
       </c>
       <c r="B44" s="53" t="s">
@@ -7179,12 +7197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84" t="s">
+    <row r="45" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A45" s="82"/>
+      <c r="B45" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="83" t="s">
         <v>190</v>
       </c>
       <c r="D45" s="53" t="s">
@@ -7212,10 +7230,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
+    <row r="46" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A46" s="82"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="53" t="s">
         <v>193</v>
       </c>
@@ -7241,10 +7259,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
+    <row r="47" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A47" s="82"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="53" t="s">
         <v>195</v>
       </c>
@@ -7270,10 +7288,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
+    <row r="48" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A48" s="82"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="53" t="s">
         <v>197</v>
       </c>
@@ -7299,9 +7317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="84" t="s">
+    <row r="49" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A49" s="82"/>
+      <c r="B49" s="83" t="s">
         <v>199</v>
       </c>
       <c r="C49" s="53" t="s">
@@ -7332,9 +7350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="86"/>
+    <row r="50" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A50" s="82"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="53" t="s">
         <v>204</v>
       </c>
@@ -7363,8 +7381,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
+    <row r="51" spans="1:11" s="52" customFormat="1" ht="150" customHeight="1">
+      <c r="A51" s="82"/>
       <c r="B51" s="53" t="s">
         <v>207</v>
       </c>
@@ -7396,16 +7414,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="20.45" customHeight="1">
       <c r="K52" s="52"/>
     </row>
-    <row r="53" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="20.45" customHeight="1">
       <c r="K53" s="52"/>
     </row>
-    <row r="54" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="20.45" customHeight="1">
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="20.45" customHeight="1">
       <c r="K55" s="52"/>
     </row>
   </sheetData>
@@ -7418,31 +7436,31 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B48"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A44:A51"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7450,7 +7468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -7463,20 +7481,20 @@
       <selection pane="bottomRight" activeCell="MV12" sqref="MV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="17.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.46484375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:368" ht="18" customHeight="1">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="87" t="s">
@@ -7929,10 +7947,10 @@
       <c r="NC1" s="90"/>
       <c r="ND1" s="90"/>
     </row>
-    <row r="2" spans="1:368" s="73" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+    <row r="2" spans="1:368" s="73" customFormat="1" ht="54.6" customHeight="1">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="65" t="s">
@@ -9025,7 +9043,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:368" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:368" s="51" customFormat="1" ht="12.4">
       <c r="A3" s="93" t="s">
         <v>457</v>
       </c>
@@ -10165,7 +10183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:368" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:368" s="51" customFormat="1" ht="12.4">
       <c r="A4" s="93"/>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -10537,7 +10555,7 @@
       <c r="NC4" s="36"/>
       <c r="ND4" s="36"/>
     </row>
-    <row r="5" spans="1:368" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:368" s="51" customFormat="1" ht="12.4">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
@@ -10909,11 +10927,11 @@
       <c r="NC5" s="36"/>
       <c r="ND5" s="36"/>
     </row>
-    <row r="6" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+    <row r="6" spans="1:368" ht="18" customHeight="1">
+      <c r="A6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -11289,9 +11307,9 @@
       <c r="NC6" s="69"/>
       <c r="ND6" s="69"/>
     </row>
-    <row r="7" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="82"/>
+    <row r="7" spans="1:368" ht="18" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="53" t="s">
         <v>21</v>
       </c>
@@ -11665,9 +11683,9 @@
       <c r="NC7" s="69"/>
       <c r="ND7" s="69"/>
     </row>
-    <row r="8" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="82"/>
+    <row r="8" spans="1:368" ht="18" customHeight="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="53" t="s">
         <v>24</v>
       </c>
@@ -12041,9 +12059,9 @@
       <c r="NC8" s="69"/>
       <c r="ND8" s="69"/>
     </row>
-    <row r="9" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="82" t="s">
+    <row r="9" spans="1:368" ht="18" customHeight="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="79" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -12419,9 +12437,9 @@
       <c r="NC9" s="69"/>
       <c r="ND9" s="69"/>
     </row>
-    <row r="10" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="82"/>
+    <row r="10" spans="1:368" ht="18" customHeight="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="53" t="s">
         <v>31</v>
       </c>
@@ -12795,12 +12813,12 @@
       <c r="NC10" s="69"/>
       <c r="ND10" s="69"/>
     </row>
-    <row r="11" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="82" t="s">
+    <row r="11" spans="1:368" ht="18" customHeight="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="79" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="53" t="s">
@@ -13173,10 +13191,10 @@
       <c r="NC11" s="69"/>
       <c r="ND11" s="69"/>
     </row>
-    <row r="12" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+    <row r="12" spans="1:368" ht="18" customHeight="1">
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="53" t="s">
         <v>42</v>
       </c>
@@ -13547,10 +13565,10 @@
       <c r="NC12" s="69"/>
       <c r="ND12" s="69"/>
     </row>
-    <row r="13" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+    <row r="13" spans="1:368" ht="18" customHeight="1">
+      <c r="A13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="53" t="s">
         <v>46</v>
       </c>
@@ -13921,10 +13939,10 @@
       <c r="NC13" s="69"/>
       <c r="ND13" s="69"/>
     </row>
-    <row r="14" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
+    <row r="14" spans="1:368" ht="18" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="53" t="s">
         <v>48</v>
       </c>
@@ -14295,10 +14313,10 @@
       <c r="NC14" s="69"/>
       <c r="ND14" s="69"/>
     </row>
-    <row r="15" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+    <row r="15" spans="1:368" ht="18" customHeight="1">
+      <c r="A15" s="82"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="53" t="s">
         <v>50</v>
       </c>
@@ -14669,8 +14687,8 @@
       <c r="NC15" s="69"/>
       <c r="ND15" s="69"/>
     </row>
-    <row r="16" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+    <row r="16" spans="1:368" ht="18" customHeight="1">
+      <c r="A16" s="82"/>
       <c r="B16" s="53" t="s">
         <v>52</v>
       </c>
@@ -15047,12 +15065,12 @@
       <c r="NC16" s="69"/>
       <c r="ND16" s="69"/>
     </row>
-    <row r="17" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="82" t="s">
+    <row r="17" spans="1:368" ht="18" customHeight="1">
+      <c r="A17" s="82"/>
+      <c r="B17" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="79" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -15425,10 +15443,10 @@
       <c r="NC17" s="69"/>
       <c r="ND17" s="69"/>
     </row>
-    <row r="18" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
+    <row r="18" spans="1:368" ht="18" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="53" t="s">
         <v>64</v>
       </c>
@@ -15799,10 +15817,10 @@
       <c r="NC18" s="69"/>
       <c r="ND18" s="69"/>
     </row>
-    <row r="19" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
+    <row r="19" spans="1:368" ht="18" customHeight="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="53" t="s">
         <v>67</v>
       </c>
@@ -16173,10 +16191,10 @@
       <c r="NC19" s="69"/>
       <c r="ND19" s="69"/>
     </row>
-    <row r="20" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
+    <row r="20" spans="1:368" ht="18" customHeight="1">
+      <c r="A20" s="82"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="53" t="s">
         <v>69</v>
       </c>
@@ -16547,9 +16565,9 @@
       <c r="NC20" s="69"/>
       <c r="ND20" s="69"/>
     </row>
-    <row r="21" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="82"/>
+    <row r="21" spans="1:368" ht="18" customHeight="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="53" t="s">
         <v>72</v>
       </c>
@@ -16923,9 +16941,9 @@
       <c r="NC21" s="69"/>
       <c r="ND21" s="69"/>
     </row>
-    <row r="22" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="82"/>
+    <row r="22" spans="1:368" ht="18" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="53" t="s">
         <v>76</v>
       </c>
@@ -17299,9 +17317,9 @@
       <c r="NC22" s="69"/>
       <c r="ND22" s="69"/>
     </row>
-    <row r="23" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="82" t="s">
+    <row r="23" spans="1:368" ht="18" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="79" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -17677,9 +17695,9 @@
       <c r="NC23" s="69"/>
       <c r="ND23" s="69"/>
     </row>
-    <row r="24" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="82"/>
+    <row r="24" spans="1:368" ht="18" customHeight="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="53" t="s">
         <v>86</v>
       </c>
@@ -18053,9 +18071,9 @@
       <c r="NC24" s="69"/>
       <c r="ND24" s="69"/>
     </row>
-    <row r="25" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="82"/>
+    <row r="25" spans="1:368" ht="18" customHeight="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="53" t="s">
         <v>90</v>
       </c>
@@ -18429,9 +18447,9 @@
       <c r="NC25" s="69"/>
       <c r="ND25" s="69"/>
     </row>
-    <row r="26" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="82"/>
+    <row r="26" spans="1:368" ht="18" customHeight="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="53" t="s">
         <v>94</v>
       </c>
@@ -18805,9 +18823,9 @@
       <c r="NC26" s="69"/>
       <c r="ND26" s="69"/>
     </row>
-    <row r="27" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="82"/>
+    <row r="27" spans="1:368" ht="18" customHeight="1">
+      <c r="A27" s="82"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="53" t="s">
         <v>100</v>
       </c>
@@ -19181,9 +19199,9 @@
       <c r="NC27" s="69"/>
       <c r="ND27" s="69"/>
     </row>
-    <row r="28" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="82"/>
+    <row r="28" spans="1:368" ht="18" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="53" t="s">
         <v>103</v>
       </c>
@@ -19557,9 +19575,9 @@
       <c r="NC28" s="69"/>
       <c r="ND28" s="69"/>
     </row>
-    <row r="29" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="82" t="s">
+    <row r="29" spans="1:368" ht="18" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="79" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="53" t="s">
@@ -19935,9 +19953,9 @@
       <c r="NC29" s="69"/>
       <c r="ND29" s="69"/>
     </row>
-    <row r="30" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="82"/>
+    <row r="30" spans="1:368" ht="18" customHeight="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="53" t="s">
         <v>112</v>
       </c>
@@ -20311,9 +20329,9 @@
       <c r="NC30" s="69"/>
       <c r="ND30" s="69"/>
     </row>
-    <row r="31" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="82" t="s">
+    <row r="31" spans="1:368" ht="18" customHeight="1">
+      <c r="A31" s="82"/>
+      <c r="B31" s="79" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -20689,9 +20707,9 @@
       <c r="NC31" s="69"/>
       <c r="ND31" s="69"/>
     </row>
-    <row r="32" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="82"/>
+    <row r="32" spans="1:368" ht="18" customHeight="1">
+      <c r="A32" s="82"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="53" t="s">
         <v>120</v>
       </c>
@@ -21065,8 +21083,8 @@
       <c r="NC32" s="69"/>
       <c r="ND32" s="69"/>
     </row>
-    <row r="33" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:368" ht="18" customHeight="1">
+      <c r="A33" s="79" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -21445,8 +21463,8 @@
       <c r="NC33" s="69"/>
       <c r="ND33" s="69"/>
     </row>
-    <row r="34" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
+    <row r="34" spans="1:368" ht="18" customHeight="1">
+      <c r="A34" s="79"/>
       <c r="B34" s="53" t="s">
         <v>130</v>
       </c>
@@ -21823,8 +21841,8 @@
       <c r="NC34" s="69"/>
       <c r="ND34" s="69"/>
     </row>
-    <row r="35" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
+    <row r="35" spans="1:368" ht="18" customHeight="1">
+      <c r="A35" s="79"/>
       <c r="B35" s="53" t="s">
         <v>136</v>
       </c>
@@ -22201,8 +22219,8 @@
       <c r="NC35" s="69"/>
       <c r="ND35" s="69"/>
     </row>
-    <row r="36" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
+    <row r="36" spans="1:368" ht="18" customHeight="1">
+      <c r="A36" s="79"/>
       <c r="B36" s="53" t="s">
         <v>141</v>
       </c>
@@ -22579,14 +22597,14 @@
       <c r="NC36" s="69"/>
       <c r="ND36" s="69"/>
     </row>
-    <row r="37" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+    <row r="37" spans="1:368" ht="18" customHeight="1">
+      <c r="A37" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="79" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="53" t="s">
@@ -22959,10 +22977,10 @@
       <c r="NC37" s="69"/>
       <c r="ND37" s="69"/>
     </row>
-    <row r="38" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
+    <row r="38" spans="1:368" ht="18" customHeight="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="53" t="s">
         <v>149</v>
       </c>
@@ -23333,9 +23351,9 @@
       <c r="NC38" s="69"/>
       <c r="ND38" s="69"/>
     </row>
-    <row r="39" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="82"/>
+    <row r="39" spans="1:368" ht="18" customHeight="1">
+      <c r="A39" s="82"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="55" t="s">
         <v>153</v>
       </c>
@@ -23709,8 +23727,8 @@
       <c r="NC39" s="69"/>
       <c r="ND39" s="69"/>
     </row>
-    <row r="40" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+    <row r="40" spans="1:368" ht="18" customHeight="1">
+      <c r="A40" s="82"/>
       <c r="B40" s="53" t="s">
         <v>156</v>
       </c>
@@ -24087,9 +24105,9 @@
       <c r="NC40" s="69"/>
       <c r="ND40" s="69"/>
     </row>
-    <row r="41" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="82" t="s">
+    <row r="41" spans="1:368" ht="18" customHeight="1">
+      <c r="A41" s="82"/>
+      <c r="B41" s="79" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="55" t="s">
@@ -24465,9 +24483,9 @@
       <c r="NC41" s="69"/>
       <c r="ND41" s="69"/>
     </row>
-    <row r="42" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="82"/>
+    <row r="42" spans="1:368" ht="18" customHeight="1">
+      <c r="A42" s="82"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="55" t="s">
         <v>164</v>
       </c>
@@ -24841,12 +24859,12 @@
       <c r="NC42" s="69"/>
       <c r="ND42" s="69"/>
     </row>
-    <row r="43" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="82" t="s">
+    <row r="43" spans="1:368" ht="18" customHeight="1">
+      <c r="A43" s="82"/>
+      <c r="B43" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="79" t="s">
         <v>168</v>
       </c>
       <c r="D43" s="53" t="s">
@@ -25219,10 +25237,10 @@
       <c r="NC43" s="69"/>
       <c r="ND43" s="69"/>
     </row>
-    <row r="44" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
+    <row r="44" spans="1:368" ht="18" customHeight="1">
+      <c r="A44" s="82"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="53" t="s">
         <v>173</v>
       </c>
@@ -25593,9 +25611,9 @@
       <c r="NC44" s="69"/>
       <c r="ND44" s="69"/>
     </row>
-    <row r="45" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="82" t="s">
+    <row r="45" spans="1:368" ht="18" customHeight="1">
+      <c r="A45" s="82"/>
+      <c r="B45" s="79" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="53" t="s">
@@ -25971,9 +25989,9 @@
       <c r="NC45" s="69"/>
       <c r="ND45" s="69"/>
     </row>
-    <row r="46" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="82"/>
+    <row r="46" spans="1:368" ht="18" customHeight="1">
+      <c r="A46" s="82"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="53" t="s">
         <v>180</v>
       </c>
@@ -26347,8 +26365,8 @@
       <c r="NC46" s="69"/>
       <c r="ND46" s="69"/>
     </row>
-    <row r="47" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:368" ht="18" customHeight="1">
+      <c r="A47" s="82" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="53" t="s">
@@ -26727,12 +26745,12 @@
       <c r="NC47" s="69"/>
       <c r="ND47" s="69"/>
     </row>
-    <row r="48" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="82" t="s">
+    <row r="48" spans="1:368" ht="18" customHeight="1">
+      <c r="A48" s="82"/>
+      <c r="B48" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="79" t="s">
         <v>190</v>
       </c>
       <c r="D48" s="53" t="s">
@@ -27105,10 +27123,10 @@
       <c r="NC48" s="69"/>
       <c r="ND48" s="69"/>
     </row>
-    <row r="49" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
+    <row r="49" spans="1:368" ht="18" customHeight="1">
+      <c r="A49" s="82"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="53" t="s">
         <v>193</v>
       </c>
@@ -27479,10 +27497,10 @@
       <c r="NC49" s="69"/>
       <c r="ND49" s="69"/>
     </row>
-    <row r="50" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
+    <row r="50" spans="1:368" ht="18" customHeight="1">
+      <c r="A50" s="82"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="53" t="s">
         <v>195</v>
       </c>
@@ -27853,10 +27871,10 @@
       <c r="NC50" s="69"/>
       <c r="ND50" s="69"/>
     </row>
-    <row r="51" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
+    <row r="51" spans="1:368" ht="18" customHeight="1">
+      <c r="A51" s="82"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="53" t="s">
         <v>197</v>
       </c>
@@ -28227,9 +28245,9 @@
       <c r="NC51" s="69"/>
       <c r="ND51" s="69"/>
     </row>
-    <row r="52" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="82" t="s">
+    <row r="52" spans="1:368" ht="18" customHeight="1">
+      <c r="A52" s="82"/>
+      <c r="B52" s="79" t="s">
         <v>199</v>
       </c>
       <c r="C52" s="53" t="s">
@@ -28605,9 +28623,9 @@
       <c r="NC52" s="69"/>
       <c r="ND52" s="69"/>
     </row>
-    <row r="53" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="82"/>
+    <row r="53" spans="1:368" ht="18" customHeight="1">
+      <c r="A53" s="82"/>
+      <c r="B53" s="79"/>
       <c r="C53" s="53" t="s">
         <v>204</v>
       </c>
@@ -28981,8 +28999,8 @@
       <c r="NC53" s="69"/>
       <c r="ND53" s="69"/>
     </row>
-    <row r="54" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+    <row r="54" spans="1:368" ht="18" customHeight="1">
+      <c r="A54" s="82"/>
       <c r="B54" s="53" t="s">
         <v>207</v>
       </c>
@@ -29359,21 +29377,21 @@
       <c r="NC54" s="69"/>
       <c r="ND54" s="69"/>
     </row>
-    <row r="55" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:368" ht="18" customHeight="1">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
       <c r="E55" s="58"/>
     </row>
-    <row r="56" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:368" ht="18" customHeight="1">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
       <c r="D56" s="57"/>
       <c r="E56" s="58"/>
     </row>
-    <row r="57" spans="1:368" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:368" ht="18" customHeight="1">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -29387,6 +29405,12 @@
     <mergeCell ref="A3:C5"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A6:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A46"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C1:C2"/>
@@ -29403,23 +29427,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A6:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A46"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="LT1:MB1"/>
     <mergeCell ref="MC1:MI1"/>
     <mergeCell ref="MJ1:MP1"/>
     <mergeCell ref="MQ1:MW1"/>
-    <mergeCell ref="MX1:ND1"/>
-    <mergeCell ref="KA1:KL1"/>
-    <mergeCell ref="KM1:KT1"/>
-    <mergeCell ref="KU1:LB1"/>
-    <mergeCell ref="LC1:LJ1"/>
-    <mergeCell ref="LK1:LS1"/>
     <mergeCell ref="IJ1:IN1"/>
     <mergeCell ref="IO1:IY1"/>
     <mergeCell ref="IZ1:JD1"/>
@@ -29431,6 +29443,12 @@
     <mergeCell ref="HJ1:HW1"/>
     <mergeCell ref="HX1:II1"/>
     <mergeCell ref="DR1:DU1"/>
+    <mergeCell ref="MX1:ND1"/>
+    <mergeCell ref="KA1:KL1"/>
+    <mergeCell ref="KM1:KT1"/>
+    <mergeCell ref="KU1:LB1"/>
+    <mergeCell ref="LC1:LJ1"/>
+    <mergeCell ref="LK1:LS1"/>
     <mergeCell ref="DV1:EH1"/>
     <mergeCell ref="EI1:ES1"/>
     <mergeCell ref="ET1:EY1"/>
@@ -29457,7 +29475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -29470,14 +29488,14 @@
       <selection pane="bottomRight" activeCell="MO14" sqref="MO14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="64"/>
-    <col min="2" max="2" width="28.5546875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="64"/>
+    <col min="1" max="1" width="9.1328125" style="64"/>
+    <col min="2" max="2" width="28.53125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:366" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:366" ht="14" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -29931,7 +29949,7 @@
       <c r="NA1" s="90"/>
       <c r="NB1" s="90"/>
     </row>
-    <row r="2" spans="1:366" s="7" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:366" s="7" customFormat="1" ht="37.799999999999997" customHeight="1">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -31025,7 +31043,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:366" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:366" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>457</v>
       </c>
@@ -32163,7 +32181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:366" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:366" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="93"/>
       <c r="B4" s="94" t="s">
         <v>459</v>
@@ -32533,7 +32551,7 @@
       <c r="NA4" s="50"/>
       <c r="NB4" s="50"/>
     </row>
-    <row r="5" spans="1:366" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:366" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="93"/>
       <c r="B5" s="94" t="s">
         <v>460</v>
@@ -32903,7 +32921,7 @@
       <c r="NA5" s="50"/>
       <c r="NB5" s="50"/>
     </row>
-    <row r="6" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:366" ht="18" customHeight="1">
       <c r="A6" s="97" t="s">
         <v>11</v>
       </c>
@@ -33277,7 +33295,7 @@
       <c r="NA6" s="69"/>
       <c r="NB6" s="69"/>
     </row>
-    <row r="7" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:366" ht="18" customHeight="1">
       <c r="A7" s="97"/>
       <c r="B7" s="26" t="s">
         <v>27</v>
@@ -33649,7 +33667,7 @@
       <c r="NA7" s="69"/>
       <c r="NB7" s="69"/>
     </row>
-    <row r="8" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:366" ht="18" customHeight="1">
       <c r="A8" s="97"/>
       <c r="B8" s="26" t="s">
         <v>38</v>
@@ -34021,7 +34039,7 @@
       <c r="NA8" s="69"/>
       <c r="NB8" s="69"/>
     </row>
-    <row r="9" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:366" ht="18" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="26" t="s">
         <v>52</v>
@@ -34393,7 +34411,7 @@
       <c r="NA9" s="69"/>
       <c r="NB9" s="69"/>
     </row>
-    <row r="10" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:366" ht="18" customHeight="1">
       <c r="A10" s="97"/>
       <c r="B10" s="26" t="s">
         <v>58</v>
@@ -34765,7 +34783,7 @@
       <c r="NA10" s="69"/>
       <c r="NB10" s="69"/>
     </row>
-    <row r="11" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:366" ht="18" customHeight="1">
       <c r="A11" s="97"/>
       <c r="B11" s="26" t="s">
         <v>81</v>
@@ -35137,7 +35155,7 @@
       <c r="NA11" s="69"/>
       <c r="NB11" s="69"/>
     </row>
-    <row r="12" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:366" ht="18" customHeight="1">
       <c r="A12" s="97"/>
       <c r="B12" s="26" t="s">
         <v>461</v>
@@ -35509,7 +35527,7 @@
       <c r="NA12" s="69"/>
       <c r="NB12" s="69"/>
     </row>
-    <row r="13" spans="1:366" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:366" s="23" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="43" t="s">
         <v>462</v>
@@ -35881,7 +35899,7 @@
       <c r="NA13" s="70"/>
       <c r="NB13" s="70"/>
     </row>
-    <row r="14" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:366" ht="18" customHeight="1">
       <c r="A14" s="99" t="s">
         <v>463</v>
       </c>
@@ -36255,7 +36273,7 @@
       <c r="NA14" s="69"/>
       <c r="NB14" s="69"/>
     </row>
-    <row r="15" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:366" ht="18" customHeight="1">
       <c r="A15" s="99"/>
       <c r="B15" s="42" t="s">
         <v>130</v>
@@ -36627,7 +36645,7 @@
       <c r="NA15" s="69"/>
       <c r="NB15" s="69"/>
     </row>
-    <row r="16" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:366" ht="18" customHeight="1">
       <c r="A16" s="99"/>
       <c r="B16" s="42" t="s">
         <v>136</v>
@@ -36999,7 +37017,7 @@
       <c r="NA16" s="69"/>
       <c r="NB16" s="69"/>
     </row>
-    <row r="17" spans="1:366" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:366" ht="18" customHeight="1">
       <c r="A17" s="99"/>
       <c r="B17" s="42" t="s">
         <v>141</v>
@@ -37371,7 +37389,7 @@
       <c r="NA17" s="69"/>
       <c r="NB17" s="69"/>
     </row>
-    <row r="18" spans="1:366" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:366" s="23" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="100"/>
       <c r="B18" s="46" t="s">
         <v>462</v>
@@ -37743,7 +37761,7 @@
       <c r="NA18" s="70"/>
       <c r="NB18" s="70"/>
     </row>
-    <row r="19" spans="1:366" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:366" s="23" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="95" t="s">
         <v>464</v>
       </c>
@@ -38176,32 +38194,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:AZ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="11" width="9.109375" style="8"/>
+    <col min="1" max="11" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:52" ht="13.8" customHeight="1">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="87" t="s">
@@ -38280,10 +38298,10 @@
       <c r="AY1" s="101"/>
       <c r="AZ1" s="101"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+    <row r="2" spans="1:52">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
@@ -38414,7 +38432,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="51" customFormat="1" ht="12.4">
       <c r="A3" s="96" t="s">
         <v>457</v>
       </c>
@@ -38590,7 +38608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" s="51" customFormat="1" ht="12.4">
       <c r="A4" s="96"/>
       <c r="B4" s="25" t="s">
         <v>459</v>
@@ -38646,7 +38664,7 @@
       <c r="AY4" s="35"/>
       <c r="AZ4" s="35"/>
     </row>
-    <row r="5" spans="1:52" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" s="51" customFormat="1" ht="12.4">
       <c r="A5" s="96"/>
       <c r="B5" s="25" t="s">
         <v>460</v>
@@ -38702,11 +38720,11 @@
       <c r="AY5" s="35"/>
       <c r="AZ5" s="35"/>
     </row>
-    <row r="6" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+    <row r="6" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -38778,9 +38796,9 @@
       <c r="AY6" s="63"/>
       <c r="AZ6" s="63"/>
     </row>
-    <row r="7" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="82"/>
+    <row r="7" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="53" t="s">
         <v>21</v>
       </c>
@@ -38850,9 +38868,9 @@
       <c r="AY7" s="63"/>
       <c r="AZ7" s="63"/>
     </row>
-    <row r="8" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="82"/>
+    <row r="8" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="53" t="s">
         <v>24</v>
       </c>
@@ -38922,9 +38940,9 @@
       <c r="AY8" s="63"/>
       <c r="AZ8" s="63"/>
     </row>
-    <row r="9" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="82" t="s">
+    <row r="9" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="79" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -38996,9 +39014,9 @@
       <c r="AY9" s="63"/>
       <c r="AZ9" s="63"/>
     </row>
-    <row r="10" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="82"/>
+    <row r="10" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="82"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="53" t="s">
         <v>31</v>
       </c>
@@ -39068,12 +39086,12 @@
       <c r="AY10" s="63"/>
       <c r="AZ10" s="63"/>
     </row>
-    <row r="11" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="82" t="s">
+    <row r="11" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="79" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="53" t="s">
@@ -39142,10 +39160,10 @@
       <c r="AY11" s="63"/>
       <c r="AZ11" s="63"/>
     </row>
-    <row r="12" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+    <row r="12" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="53" t="s">
         <v>42</v>
       </c>
@@ -39212,10 +39230,10 @@
       <c r="AY12" s="63"/>
       <c r="AZ12" s="63"/>
     </row>
-    <row r="13" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+    <row r="13" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="53" t="s">
         <v>46</v>
       </c>
@@ -39282,10 +39300,10 @@
       <c r="AY13" s="63"/>
       <c r="AZ13" s="63"/>
     </row>
-    <row r="14" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
+    <row r="14" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="53" t="s">
         <v>48</v>
       </c>
@@ -39352,10 +39370,10 @@
       <c r="AY14" s="63"/>
       <c r="AZ14" s="63"/>
     </row>
-    <row r="15" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+    <row r="15" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="82"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="53" t="s">
         <v>50</v>
       </c>
@@ -39422,8 +39440,8 @@
       <c r="AY15" s="63"/>
       <c r="AZ15" s="63"/>
     </row>
-    <row r="16" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
+    <row r="16" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="82"/>
       <c r="B16" s="53" t="s">
         <v>52</v>
       </c>
@@ -39496,12 +39514,12 @@
       <c r="AY16" s="63"/>
       <c r="AZ16" s="63"/>
     </row>
-    <row r="17" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="82" t="s">
+    <row r="17" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="82"/>
+      <c r="B17" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="79" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -39570,10 +39588,10 @@
       <c r="AY17" s="63"/>
       <c r="AZ17" s="63"/>
     </row>
-    <row r="18" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
+    <row r="18" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="53" t="s">
         <v>64</v>
       </c>
@@ -39640,10 +39658,10 @@
       <c r="AY18" s="63"/>
       <c r="AZ18" s="63"/>
     </row>
-    <row r="19" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
+    <row r="19" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="53" t="s">
         <v>67</v>
       </c>
@@ -39710,10 +39728,10 @@
       <c r="AY19" s="63"/>
       <c r="AZ19" s="63"/>
     </row>
-    <row r="20" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
+    <row r="20" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="82"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="53" t="s">
         <v>69</v>
       </c>
@@ -39780,9 +39798,9 @@
       <c r="AY20" s="63"/>
       <c r="AZ20" s="63"/>
     </row>
-    <row r="21" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="82"/>
+    <row r="21" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="53" t="s">
         <v>72</v>
       </c>
@@ -39852,9 +39870,9 @@
       <c r="AY21" s="63"/>
       <c r="AZ21" s="63"/>
     </row>
-    <row r="22" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="82"/>
+    <row r="22" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="53" t="s">
         <v>76</v>
       </c>
@@ -39924,9 +39942,9 @@
       <c r="AY22" s="63"/>
       <c r="AZ22" s="63"/>
     </row>
-    <row r="23" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="82" t="s">
+    <row r="23" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="79" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -39998,9 +40016,9 @@
       <c r="AY23" s="63"/>
       <c r="AZ23" s="63"/>
     </row>
-    <row r="24" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="82"/>
+    <row r="24" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="53" t="s">
         <v>86</v>
       </c>
@@ -40070,9 +40088,9 @@
       <c r="AY24" s="63"/>
       <c r="AZ24" s="63"/>
     </row>
-    <row r="25" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="82"/>
+    <row r="25" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="53" t="s">
         <v>90</v>
       </c>
@@ -40142,9 +40160,9 @@
       <c r="AY25" s="63"/>
       <c r="AZ25" s="63"/>
     </row>
-    <row r="26" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="82"/>
+    <row r="26" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="53" t="s">
         <v>94</v>
       </c>
@@ -40214,9 +40232,9 @@
       <c r="AY26" s="63"/>
       <c r="AZ26" s="63"/>
     </row>
-    <row r="27" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="82"/>
+    <row r="27" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="82"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="53" t="s">
         <v>100</v>
       </c>
@@ -40286,9 +40304,9 @@
       <c r="AY27" s="63"/>
       <c r="AZ27" s="63"/>
     </row>
-    <row r="28" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="82"/>
+    <row r="28" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="53" t="s">
         <v>103</v>
       </c>
@@ -40358,9 +40376,9 @@
       <c r="AY28" s="63"/>
       <c r="AZ28" s="63"/>
     </row>
-    <row r="29" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="82" t="s">
+    <row r="29" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="79" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="53" t="s">
@@ -40432,9 +40450,9 @@
       <c r="AY29" s="63"/>
       <c r="AZ29" s="63"/>
     </row>
-    <row r="30" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="82"/>
+    <row r="30" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="53" t="s">
         <v>112</v>
       </c>
@@ -40504,9 +40522,9 @@
       <c r="AY30" s="63"/>
       <c r="AZ30" s="63"/>
     </row>
-    <row r="31" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="82" t="s">
+    <row r="31" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="82"/>
+      <c r="B31" s="79" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -40574,9 +40592,9 @@
       <c r="AY31" s="63"/>
       <c r="AZ31" s="63"/>
     </row>
-    <row r="32" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="82"/>
+    <row r="32" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="82"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="53" t="s">
         <v>120</v>
       </c>
@@ -40642,8 +40660,8 @@
       <c r="AY32" s="63"/>
       <c r="AZ32" s="63"/>
     </row>
-    <row r="33" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="79" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -40718,8 +40736,8 @@
       <c r="AY33" s="63"/>
       <c r="AZ33" s="63"/>
     </row>
-    <row r="34" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
+    <row r="34" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="79"/>
       <c r="B34" s="53" t="s">
         <v>130</v>
       </c>
@@ -40792,8 +40810,8 @@
       <c r="AY34" s="63"/>
       <c r="AZ34" s="63"/>
     </row>
-    <row r="35" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
+    <row r="35" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="79"/>
       <c r="B35" s="53" t="s">
         <v>136</v>
       </c>
@@ -40866,8 +40884,8 @@
       <c r="AY35" s="63"/>
       <c r="AZ35" s="63"/>
     </row>
-    <row r="36" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
+    <row r="36" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="79"/>
       <c r="B36" s="53" t="s">
         <v>141</v>
       </c>
@@ -40940,14 +40958,14 @@
       <c r="AY36" s="63"/>
       <c r="AZ36" s="63"/>
     </row>
-    <row r="37" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83" t="s">
+    <row r="37" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="79" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="53" t="s">
@@ -41016,10 +41034,10 @@
       <c r="AY37" s="63"/>
       <c r="AZ37" s="63"/>
     </row>
-    <row r="38" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="83"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
+    <row r="38" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="53" t="s">
         <v>149</v>
       </c>
@@ -41086,9 +41104,9 @@
       <c r="AY38" s="63"/>
       <c r="AZ38" s="63"/>
     </row>
-    <row r="39" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="82"/>
+    <row r="39" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="82"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="55" t="s">
         <v>153</v>
       </c>
@@ -41158,8 +41176,8 @@
       <c r="AY39" s="63"/>
       <c r="AZ39" s="63"/>
     </row>
-    <row r="40" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
+    <row r="40" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="82"/>
       <c r="B40" s="53" t="s">
         <v>156</v>
       </c>
@@ -41232,9 +41250,9 @@
       <c r="AY40" s="63"/>
       <c r="AZ40" s="63"/>
     </row>
-    <row r="41" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="82" t="s">
+    <row r="41" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="82"/>
+      <c r="B41" s="79" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="55" t="s">
@@ -41306,9 +41324,9 @@
       <c r="AY41" s="63"/>
       <c r="AZ41" s="63"/>
     </row>
-    <row r="42" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="82"/>
+    <row r="42" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="82"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="55" t="s">
         <v>164</v>
       </c>
@@ -41378,12 +41396,12 @@
       <c r="AY42" s="63"/>
       <c r="AZ42" s="63"/>
     </row>
-    <row r="43" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="82" t="s">
+    <row r="43" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A43" s="82"/>
+      <c r="B43" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="79" t="s">
         <v>168</v>
       </c>
       <c r="D43" s="53" t="s">
@@ -41452,10 +41470,10 @@
       <c r="AY43" s="63"/>
       <c r="AZ43" s="63"/>
     </row>
-    <row r="44" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
+    <row r="44" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A44" s="82"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="53" t="s">
         <v>173</v>
       </c>
@@ -41522,9 +41540,9 @@
       <c r="AY44" s="63"/>
       <c r="AZ44" s="63"/>
     </row>
-    <row r="45" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="82" t="s">
+    <row r="45" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A45" s="82"/>
+      <c r="B45" s="79" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="53" t="s">
@@ -41596,9 +41614,9 @@
       <c r="AY45" s="63"/>
       <c r="AZ45" s="63"/>
     </row>
-    <row r="46" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="82"/>
+    <row r="46" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A46" s="82"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="53" t="s">
         <v>180</v>
       </c>
@@ -41668,8 +41686,8 @@
       <c r="AY46" s="63"/>
       <c r="AZ46" s="63"/>
     </row>
-    <row r="47" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A47" s="82" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="53" t="s">
@@ -41744,12 +41762,12 @@
       <c r="AY47" s="63"/>
       <c r="AZ47" s="63"/>
     </row>
-    <row r="48" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="82" t="s">
+    <row r="48" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A48" s="82"/>
+      <c r="B48" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="79" t="s">
         <v>190</v>
       </c>
       <c r="D48" s="53" t="s">
@@ -41818,10 +41836,10 @@
       <c r="AY48" s="63"/>
       <c r="AZ48" s="63"/>
     </row>
-    <row r="49" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
+    <row r="49" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A49" s="82"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="53" t="s">
         <v>193</v>
       </c>
@@ -41888,10 +41906,10 @@
       <c r="AY49" s="63"/>
       <c r="AZ49" s="63"/>
     </row>
-    <row r="50" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
+    <row r="50" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A50" s="82"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="53" t="s">
         <v>195</v>
       </c>
@@ -41958,10 +41976,10 @@
       <c r="AY50" s="63"/>
       <c r="AZ50" s="63"/>
     </row>
-    <row r="51" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
+    <row r="51" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A51" s="82"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="53" t="s">
         <v>197</v>
       </c>
@@ -42028,9 +42046,9 @@
       <c r="AY51" s="63"/>
       <c r="AZ51" s="63"/>
     </row>
-    <row r="52" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="82" t="s">
+    <row r="52" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A52" s="82"/>
+      <c r="B52" s="79" t="s">
         <v>199</v>
       </c>
       <c r="C52" s="53" t="s">
@@ -42102,9 +42120,9 @@
       <c r="AY52" s="63"/>
       <c r="AZ52" s="63"/>
     </row>
-    <row r="53" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="82"/>
+    <row r="53" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="82"/>
+      <c r="B53" s="79"/>
       <c r="C53" s="53" t="s">
         <v>204</v>
       </c>
@@ -42174,8 +42192,8 @@
       <c r="AY53" s="63"/>
       <c r="AZ53" s="63"/>
     </row>
-    <row r="54" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="83"/>
+    <row r="54" spans="1:52" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A54" s="82"/>
       <c r="B54" s="53" t="s">
         <v>207</v>
       </c>
@@ -42248,7 +42266,7 @@
       <c r="AY54" s="63"/>
       <c r="AZ54" s="63"/>
     </row>
-    <row r="55" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -42261,7 +42279,7 @@
       <c r="J55" s="58"/>
       <c r="K55" s="52"/>
     </row>
-    <row r="56" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -42274,7 +42292,7 @@
       <c r="J56" s="58"/>
       <c r="K56" s="52"/>
     </row>
-    <row r="57" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -42287,7 +42305,7 @@
       <c r="J57" s="58"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -42300,7 +42318,7 @@
       <c r="J58" s="58"/>
       <c r="K58" s="52"/>
     </row>
-    <row r="59" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" s="51" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -42313,18 +42331,14 @@
       <c r="J59" s="58"/>
       <c r="K59" s="57"/>
     </row>
-    <row r="60" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:52" ht="18" customHeight="1"/>
+    <row r="61" spans="1:52" ht="18" customHeight="1"/>
+    <row r="62" spans="1:52" ht="18" customHeight="1"/>
+    <row r="63" spans="1:52" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C48:C51"/>
@@ -42333,18 +42347,22 @@
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="Y1:AG1"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AO1:AZ1"/>
     <mergeCell ref="A1:A2"/>
@@ -42366,7 +42384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -42379,25 +42397,25 @@
       <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="24" customWidth="1"/>
     <col min="19" max="19" width="8.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="19.25" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="96"/>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="97" t="s">
         <v>11</v>
       </c>
@@ -42415,17 +42433,17 @@
       <c r="P1" s="99"/>
       <c r="Q1" s="99"/>
       <c r="R1" s="99"/>
-      <c r="S1" s="110" t="s">
+      <c r="S1" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="110" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="U1" s="110" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="49.5">
       <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
@@ -42478,11 +42496,11 @@
       <c r="R2" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="S2" s="110"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="109"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1">
       <c r="A3" s="96" t="s">
         <v>10</v>
       </c>
@@ -42532,10 +42550,10 @@
       <c r="S3" s="48">
         <v>1</v>
       </c>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-    </row>
-    <row r="4" spans="1:21" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>465</v>
       </c>
@@ -42564,7 +42582,7 @@
       <c r="T4" s="33"/>
       <c r="U4" s="33"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="80" t="s">
         <v>473</v>
       </c>
@@ -42591,7 +42609,7 @@
       <c r="T5" s="36"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="81"/>
       <c r="B6" s="34" t="s">
         <v>241</v>
@@ -42616,7 +42634,7 @@
       <c r="T6" s="36"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="81"/>
       <c r="B7" s="34" t="s">
         <v>242</v>
@@ -42641,7 +42659,7 @@
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="81"/>
       <c r="B8" s="34" t="s">
         <v>243</v>
@@ -42666,7 +42684,7 @@
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="81"/>
       <c r="B9" s="34" t="s">
         <v>244</v>
@@ -42691,7 +42709,7 @@
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="81"/>
       <c r="B10" s="34" t="s">
         <v>245</v>
@@ -42716,7 +42734,7 @@
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="81"/>
       <c r="B11" s="34" t="s">
         <v>246</v>
@@ -42741,7 +42759,7 @@
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="81"/>
       <c r="B12" s="34" t="s">
         <v>247</v>
@@ -42766,7 +42784,7 @@
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="81"/>
       <c r="B13" s="34" t="s">
         <v>248</v>
@@ -42791,7 +42809,7 @@
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="81"/>
       <c r="B14" s="34" t="s">
         <v>249</v>
@@ -42816,7 +42834,7 @@
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="81"/>
       <c r="B15" s="34" t="s">
         <v>250</v>
@@ -42841,7 +42859,7 @@
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="81"/>
       <c r="B16" s="34" t="s">
         <v>251</v>
@@ -42866,8 +42884,8 @@
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
     </row>
-    <row r="17" spans="1:21" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:21" s="23" customFormat="1">
+      <c r="A17" s="111"/>
       <c r="B17" s="38" t="s">
         <v>472</v>
       </c>
@@ -42891,8 +42909,8 @@
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="109" t="s">
+    <row r="18" spans="1:21">
+      <c r="A18" s="105" t="s">
         <v>467</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -42918,8 +42936,8 @@
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
+    <row r="19" spans="1:21">
+      <c r="A19" s="105"/>
       <c r="B19" s="35" t="s">
         <v>221</v>
       </c>
@@ -42943,8 +42961,8 @@
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
+    <row r="20" spans="1:21">
+      <c r="A20" s="105"/>
       <c r="B20" s="35" t="s">
         <v>223</v>
       </c>
@@ -42968,8 +42986,8 @@
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
+    <row r="21" spans="1:21">
+      <c r="A21" s="105"/>
       <c r="B21" s="35" t="s">
         <v>220</v>
       </c>
@@ -42993,8 +43011,8 @@
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
+    <row r="22" spans="1:21">
+      <c r="A22" s="105"/>
       <c r="B22" s="39" t="s">
         <v>232</v>
       </c>
@@ -43018,8 +43036,8 @@
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
+    <row r="23" spans="1:21">
+      <c r="A23" s="105"/>
       <c r="B23" s="39" t="s">
         <v>229</v>
       </c>
@@ -43043,8 +43061,8 @@
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
+    <row r="24" spans="1:21">
+      <c r="A24" s="105"/>
       <c r="B24" s="39" t="s">
         <v>230</v>
       </c>
@@ -43068,8 +43086,8 @@
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
+    <row r="25" spans="1:21">
+      <c r="A25" s="105"/>
       <c r="B25" s="35" t="s">
         <v>231</v>
       </c>
@@ -43093,8 +43111,8 @@
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
+    <row r="26" spans="1:21">
+      <c r="A26" s="105"/>
       <c r="B26" s="35" t="s">
         <v>233</v>
       </c>
@@ -43118,8 +43136,8 @@
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
     </row>
-    <row r="27" spans="1:21" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+    <row r="27" spans="1:21" s="23" customFormat="1">
+      <c r="A27" s="105"/>
       <c r="B27" s="38" t="s">
         <v>472</v>
       </c>
@@ -43143,8 +43161,8 @@
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="109" t="s">
+    <row r="28" spans="1:21">
+      <c r="A28" s="105" t="s">
         <v>468</v>
       </c>
       <c r="B28" s="35" t="s">
@@ -43170,8 +43188,8 @@
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
+    <row r="29" spans="1:21">
+      <c r="A29" s="105"/>
       <c r="B29" s="35" t="s">
         <v>222</v>
       </c>
@@ -43195,8 +43213,8 @@
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
+    <row r="30" spans="1:21">
+      <c r="A30" s="105"/>
       <c r="B30" s="35" t="s">
         <v>228</v>
       </c>
@@ -43220,8 +43238,8 @@
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
+    <row r="31" spans="1:21">
+      <c r="A31" s="105"/>
       <c r="B31" s="35" t="s">
         <v>234</v>
       </c>
@@ -43245,8 +43263,8 @@
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
+    <row r="32" spans="1:21">
+      <c r="A32" s="105"/>
       <c r="B32" s="35" t="s">
         <v>235</v>
       </c>
@@ -43270,8 +43288,8 @@
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
+    <row r="33" spans="1:21">
+      <c r="A33" s="105"/>
       <c r="B33" s="35" t="s">
         <v>236</v>
       </c>
@@ -43295,8 +43313,8 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
+    <row r="34" spans="1:21">
+      <c r="A34" s="105"/>
       <c r="B34" s="35" t="s">
         <v>237</v>
       </c>
@@ -43320,8 +43338,8 @@
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
     </row>
-    <row r="35" spans="1:21" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+    <row r="35" spans="1:21" s="23" customFormat="1">
+      <c r="A35" s="105"/>
       <c r="B35" s="38" t="s">
         <v>472</v>
       </c>
@@ -43345,7 +43363,7 @@
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21">
       <c r="A36" s="101" t="s">
         <v>469</v>
       </c>
@@ -43372,7 +43390,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
     </row>
-    <row r="37" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="24.75">
       <c r="A37" s="101"/>
       <c r="B37" s="41" t="s">
         <v>474</v>
@@ -43397,7 +43415,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38" s="101"/>
       <c r="B38" s="35" t="s">
         <v>214</v>
@@ -43422,7 +43440,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39" s="101"/>
       <c r="B39" s="35" t="s">
         <v>215</v>
@@ -43447,7 +43465,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40" s="101"/>
       <c r="B40" s="35" t="s">
         <v>217</v>
@@ -43472,7 +43490,7 @@
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21">
       <c r="A41" s="101"/>
       <c r="B41" s="35" t="s">
         <v>218</v>
@@ -43497,7 +43515,7 @@
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21">
       <c r="A42" s="101"/>
       <c r="B42" s="35" t="s">
         <v>224</v>
@@ -43522,7 +43540,7 @@
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21">
       <c r="A43" s="101"/>
       <c r="B43" s="35" t="s">
         <v>225</v>
@@ -43547,7 +43565,7 @@
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21">
       <c r="A44" s="101"/>
       <c r="B44" s="35" t="s">
         <v>475</v>
@@ -43572,7 +43590,7 @@
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
     </row>
-    <row r="45" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="24.75">
       <c r="A45" s="101"/>
       <c r="B45" s="41" t="s">
         <v>227</v>
@@ -43597,7 +43615,7 @@
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46" s="101"/>
       <c r="B46" s="35" t="s">
         <v>238</v>
@@ -43622,7 +43640,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21">
       <c r="A47" s="101"/>
       <c r="B47" s="35" t="s">
         <v>239</v>
@@ -43647,7 +43665,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
     </row>
-    <row r="48" spans="1:21" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="23" customFormat="1">
       <c r="A48" s="101"/>
       <c r="B48" s="38" t="s">
         <v>472</v>
@@ -43679,13 +43697,13 @@
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A17"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A48"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
@@ -43695,76 +43713,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J14" sqref="J14:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.21875" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.46484375" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="5.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" customWidth="1"/>
+    <col min="6" max="6" width="22.53125" customWidth="1"/>
+    <col min="7" max="7" width="29.1328125" customWidth="1"/>
+    <col min="8" max="8" width="30.19921875" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.1328125" customWidth="1"/>
+    <col min="12" max="12" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="128" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="138" t="s">
         <v>478</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
       <c r="J4" s="18">
         <v>44813.7116087963</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="33.75">
       <c r="A5" s="9" t="s">
         <v>479</v>
       </c>
@@ -43774,14 +43792,14 @@
       <c r="C5" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="140" t="s">
         <v>482</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="114" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="140" t="s">
         <v>483</v>
       </c>
-      <c r="G5" s="115"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="9" t="s">
         <v>484</v>
       </c>
@@ -43792,8 +43810,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+    <row r="6" spans="1:10" s="7" customFormat="1" ht="54" customHeight="1">
+      <c r="A6" s="116" t="s">
         <v>487</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -43802,14 +43820,14 @@
       <c r="C6" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="142" t="s">
         <v>490</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118" t="s">
+      <c r="E6" s="143"/>
+      <c r="F6" s="144" t="s">
         <v>491</v>
       </c>
-      <c r="G6" s="119"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="11" t="s">
         <v>492</v>
       </c>
@@ -43820,22 +43838,22 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133" t="s">
+    <row r="7" spans="1:10" ht="14" customHeight="1">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="117" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="124" t="s">
         <v>497</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122" t="s">
+      <c r="E7" s="125"/>
+      <c r="F7" s="126" t="s">
         <v>498</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="127"/>
       <c r="H7" s="12" t="s">
         <v>499</v>
       </c>
@@ -43846,18 +43864,18 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="120" t="s">
+    <row r="8" spans="1:10" ht="14" customHeight="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="124" t="s">
         <v>502</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122" t="s">
+      <c r="E8" s="125"/>
+      <c r="F8" s="126" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="123"/>
+      <c r="G8" s="127"/>
       <c r="H8" s="12" t="s">
         <v>504</v>
       </c>
@@ -43868,18 +43886,18 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="120" t="s">
+    <row r="9" spans="1:10" ht="14" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="124" t="s">
         <v>507</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="124" t="s">
+      <c r="E9" s="125"/>
+      <c r="F9" s="136" t="s">
         <v>507</v>
       </c>
-      <c r="G9" s="125"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="12" t="s">
         <v>508</v>
       </c>
@@ -43890,18 +43908,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="120" t="s">
+    <row r="10" spans="1:10" ht="14" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="124" t="s">
         <v>511</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127" t="s">
+      <c r="E10" s="133"/>
+      <c r="F10" s="134" t="s">
         <v>511</v>
       </c>
-      <c r="G10" s="128"/>
+      <c r="G10" s="135"/>
       <c r="H10" s="12" t="s">
         <v>512</v>
       </c>
@@ -43912,15 +43930,15 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="129" t="s">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="112" t="s">
         <v>515</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="120" t="s">
         <v>517</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -43929,56 +43947,56 @@
       <c r="F11" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="123" t="s">
         <v>520</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="H11" s="123" t="s">
         <v>521</v>
       </c>
-      <c r="I11" s="139" t="s">
+      <c r="I11" s="123" t="s">
         <v>522</v>
       </c>
-      <c r="J11" s="140" t="s">
+      <c r="J11" s="130" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="136"/>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A12" s="116"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="13" t="s">
         <v>524</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="136"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="13" t="s">
         <v>526</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="142"/>
-    </row>
-    <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="136" t="s">
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="132"/>
+    </row>
+    <row r="14" spans="1:10" ht="38" customHeight="1">
+      <c r="A14" s="116"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="120" t="s">
         <v>502</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -43987,83 +44005,83 @@
       <c r="F14" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="123" t="s">
         <v>531</v>
       </c>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140" t="s">
+      <c r="I14" s="123"/>
+      <c r="J14" s="130" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="136"/>
+    <row r="15" spans="1:10" ht="38" customHeight="1">
+      <c r="A15" s="116"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="120"/>
       <c r="E15" s="13" t="s">
         <v>533</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="136"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" ht="38" customHeight="1">
+      <c r="A16" s="116"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="13" t="s">
         <v>535</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="141"/>
-    </row>
-    <row r="17" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137" t="s">
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="131"/>
+    </row>
+    <row r="17" spans="1:12" ht="38" customHeight="1">
+      <c r="A17" s="116"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121" t="s">
         <v>537</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="141"/>
-    </row>
-    <row r="18" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="138"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="131"/>
+    </row>
+    <row r="18" spans="1:12" ht="38" customHeight="1">
+      <c r="A18" s="116"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="142"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="132"/>
       <c r="L18" s="22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="91.5" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>540</v>
       </c>
@@ -44073,14 +44091,14 @@
       <c r="C19" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="112" t="s">
         <v>490</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131" t="s">
+      <c r="E19" s="113"/>
+      <c r="F19" s="114" t="s">
         <v>543</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="115"/>
       <c r="H19" s="11" t="s">
         <v>544</v>
       </c>
@@ -44091,16 +44109,16 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" ht="14" customHeight="1"/>
+    <row r="21" spans="1:12" ht="14" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15" customHeight="1"/>
+    <row r="23" spans="1:12" ht="14" customHeight="1"/>
+    <row r="24" spans="1:12" ht="14" customHeight="1"/>
+    <row r="25" spans="1:12" ht="14" customHeight="1"/>
+    <row r="26" spans="1:12" ht="14" customHeight="1"/>
+    <row r="27" spans="1:12" ht="14" customHeight="1"/>
+    <row r="28" spans="1:12" ht="14" customHeight="1"/>
+    <row r="29" spans="1:12" ht="14" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="A2:J3"/>
@@ -44111,6 +44129,13 @@
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A6:A18"/>
@@ -44127,13 +44152,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44142,25 +44160,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F314" sqref="F314"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="66.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="28" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>546</v>
       </c>
@@ -44180,7 +44198,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>212</v>
       </c>
@@ -44200,7 +44218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>252</v>
       </c>
@@ -44220,7 +44238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>253</v>
       </c>
@@ -44240,7 +44258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>254</v>
       </c>
@@ -44260,7 +44278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>213</v>
       </c>
@@ -44280,7 +44298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>257</v>
       </c>
@@ -44300,7 +44318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>258</v>
       </c>
@@ -44320,7 +44338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>259</v>
       </c>
@@ -44340,7 +44358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>260</v>
       </c>
@@ -44360,7 +44378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>261</v>
       </c>
@@ -44380,7 +44398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>214</v>
       </c>
@@ -44400,7 +44418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
@@ -44420,7 +44438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>263</v>
       </c>
@@ -44440,7 +44458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>215</v>
       </c>
@@ -44460,7 +44478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>264</v>
       </c>
@@ -44480,7 +44498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
@@ -44500,7 +44518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
@@ -44520,7 +44538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>216</v>
       </c>
@@ -44540,7 +44558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>267</v>
       </c>
@@ -44560,7 +44578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
@@ -44580,7 +44598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>269</v>
       </c>
@@ -44600,7 +44618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
@@ -44620,7 +44638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
@@ -44640,7 +44658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>272</v>
       </c>
@@ -44660,7 +44678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>217</v>
       </c>
@@ -44680,7 +44698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>273</v>
       </c>
@@ -44700,7 +44718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>274</v>
       </c>
@@ -44720,7 +44738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>275</v>
       </c>
@@ -44740,7 +44758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>276</v>
       </c>
@@ -44760,7 +44778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>277</v>
       </c>
@@ -44780,7 +44798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>278</v>
       </c>
@@ -44800,7 +44818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>279</v>
       </c>
@@ -44820,7 +44838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>218</v>
       </c>
@@ -44840,7 +44858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>280</v>
       </c>
@@ -44860,7 +44878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>281</v>
       </c>
@@ -44880,7 +44898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>282</v>
       </c>
@@ -44900,7 +44918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>283</v>
       </c>
@@ -44920,7 +44938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>284</v>
       </c>
@@ -44940,7 +44958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>285</v>
       </c>
@@ -44960,7 +44978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>286</v>
       </c>
@@ -44980,7 +44998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>219</v>
       </c>
@@ -45000,7 +45018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>287</v>
       </c>
@@ -45020,7 +45038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>288</v>
       </c>
@@ -45040,7 +45058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>289</v>
       </c>
@@ -45060,7 +45078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>290</v>
       </c>
@@ -45080,7 +45098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>291</v>
       </c>
@@ -45100,7 +45118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>292</v>
       </c>
@@ -45120,7 +45138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>293</v>
       </c>
@@ -45140,7 +45158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>294</v>
       </c>
@@ -45160,7 +45178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>295</v>
       </c>
@@ -45180,7 +45198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>296</v>
       </c>
@@ -45200,7 +45218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>297</v>
       </c>
@@ -45220,7 +45238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>298</v>
       </c>
@@ -45240,7 +45258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>299</v>
       </c>
@@ -45260,7 +45278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>300</v>
       </c>
@@ -45280,7 +45298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>301</v>
       </c>
@@ -45300,7 +45318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>220</v>
       </c>
@@ -45320,7 +45338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>287</v>
       </c>
@@ -45340,7 +45358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>302</v>
       </c>
@@ -45360,7 +45378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>303</v>
       </c>
@@ -45380,7 +45398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>304</v>
       </c>
@@ -45400,7 +45418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>289</v>
       </c>
@@ -45420,7 +45438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>305</v>
       </c>
@@ -45440,7 +45458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>221</v>
       </c>
@@ -45460,7 +45478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>306</v>
       </c>
@@ -45480,7 +45498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>307</v>
       </c>
@@ -45500,7 +45518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>308</v>
       </c>
@@ -45520,7 +45538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>309</v>
       </c>
@@ -45540,7 +45558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>310</v>
       </c>
@@ -45560,7 +45578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>222</v>
       </c>
@@ -45580,7 +45598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>311</v>
       </c>
@@ -45600,7 +45618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>312</v>
       </c>
@@ -45620,7 +45638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>313</v>
       </c>
@@ -45640,7 +45658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>314</v>
       </c>
@@ -45660,7 +45678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>315</v>
       </c>
@@ -45680,7 +45698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>316</v>
       </c>
@@ -45700,7 +45718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>223</v>
       </c>
@@ -45720,7 +45738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>287</v>
       </c>
@@ -45740,7 +45758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>317</v>
       </c>
@@ -45760,7 +45778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>318</v>
       </c>
@@ -45780,7 +45798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>319</v>
       </c>
@@ -45800,7 +45818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>320</v>
       </c>
@@ -45820,7 +45838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>321</v>
       </c>
@@ -45840,7 +45858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>322</v>
       </c>
@@ -45860,7 +45878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>323</v>
       </c>
@@ -45880,7 +45898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>224</v>
       </c>
@@ -45900,7 +45918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>324</v>
       </c>
@@ -45920,7 +45938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>325</v>
       </c>
@@ -45940,7 +45958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>326</v>
       </c>
@@ -45960,7 +45978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>327</v>
       </c>
@@ -45980,7 +45998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>328</v>
       </c>
@@ -46000,7 +46018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>329</v>
       </c>
@@ -46020,7 +46038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>330</v>
       </c>
@@ -46040,7 +46058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>225</v>
       </c>
@@ -46060,7 +46078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>331</v>
       </c>
@@ -46080,7 +46098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>332</v>
       </c>
@@ -46100,7 +46118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>226</v>
       </c>
@@ -46120,7 +46138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>333</v>
       </c>
@@ -46140,7 +46158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>334</v>
       </c>
@@ -46160,7 +46178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>335</v>
       </c>
@@ -46180,7 +46198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>336</v>
       </c>
@@ -46200,7 +46218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>227</v>
       </c>
@@ -46220,7 +46238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>337</v>
       </c>
@@ -46240,7 +46258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>338</v>
       </c>
@@ -46260,7 +46278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>228</v>
       </c>
@@ -46280,7 +46298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>339</v>
       </c>
@@ -46300,7 +46318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>340</v>
       </c>
@@ -46320,7 +46338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>341</v>
       </c>
@@ -46340,7 +46358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>342</v>
       </c>
@@ -46360,7 +46378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>343</v>
       </c>
@@ -46380,7 +46398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>344</v>
       </c>
@@ -46400,7 +46418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>345</v>
       </c>
@@ -46420,7 +46438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>346</v>
       </c>
@@ -46440,7 +46458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>347</v>
       </c>
@@ -46460,7 +46478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>290</v>
       </c>
@@ -46480,7 +46498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>348</v>
       </c>
@@ -46500,7 +46518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>229</v>
       </c>
@@ -46520,7 +46538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>287</v>
       </c>
@@ -46540,7 +46558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>349</v>
       </c>
@@ -46560,7 +46578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>350</v>
       </c>
@@ -46580,7 +46598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>351</v>
       </c>
@@ -46600,7 +46618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>352</v>
       </c>
@@ -46620,7 +46638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>353</v>
       </c>
@@ -46640,7 +46658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>354</v>
       </c>
@@ -46660,7 +46678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>355</v>
       </c>
@@ -46680,7 +46698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>356</v>
       </c>
@@ -46700,7 +46718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>230</v>
       </c>
@@ -46720,7 +46738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>357</v>
       </c>
@@ -46740,7 +46758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>358</v>
       </c>
@@ -46760,7 +46778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>359</v>
       </c>
@@ -46780,7 +46798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>360</v>
       </c>
@@ -46800,7 +46818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>231</v>
       </c>
@@ -46820,7 +46838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>287</v>
       </c>
@@ -46840,7 +46858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>361</v>
       </c>
@@ -46860,7 +46878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>362</v>
       </c>
@@ -46880,7 +46898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
@@ -46900,7 +46918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>364</v>
       </c>
@@ -46920,7 +46938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -46940,7 +46958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>366</v>
       </c>
@@ -46960,7 +46978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
@@ -46980,7 +46998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>368</v>
       </c>
@@ -47000,7 +47018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>369</v>
       </c>
@@ -47020,7 +47038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>370</v>
       </c>
@@ -47040,7 +47058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>371</v>
       </c>
@@ -47060,7 +47078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>232</v>
       </c>
@@ -47080,7 +47098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>372</v>
       </c>
@@ -47100,7 +47118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>373</v>
       </c>
@@ -47120,7 +47138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>374</v>
       </c>
@@ -47140,7 +47158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>375</v>
       </c>
@@ -47160,7 +47178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>376</v>
       </c>
@@ -47180,7 +47198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>377</v>
       </c>
@@ -47200,7 +47218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>378</v>
       </c>
@@ -47220,7 +47238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>379</v>
       </c>
@@ -47240,7 +47258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>380</v>
       </c>
@@ -47260,7 +47278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>381</v>
       </c>
@@ -47280,7 +47298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>382</v>
       </c>
@@ -47300,7 +47318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>383</v>
       </c>
@@ -47320,7 +47338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
         <v>233</v>
       </c>
@@ -47340,7 +47358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
         <v>287</v>
       </c>
@@ -47360,7 +47378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
         <v>290</v>
       </c>
@@ -47380,7 +47398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
         <v>384</v>
       </c>
@@ -47400,7 +47418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
         <v>385</v>
       </c>
@@ -47420,7 +47438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
         <v>386</v>
       </c>
@@ -47440,7 +47458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
         <v>387</v>
       </c>
@@ -47460,7 +47478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
         <v>388</v>
       </c>
@@ -47480,7 +47498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
         <v>389</v>
       </c>
@@ -47500,7 +47518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
         <v>390</v>
       </c>
@@ -47520,7 +47538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
         <v>391</v>
       </c>
@@ -47540,7 +47558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
         <v>303</v>
       </c>
@@ -47560,7 +47578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
         <v>392</v>
       </c>
@@ -47580,7 +47598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
         <v>393</v>
       </c>
@@ -47600,7 +47618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
         <v>394</v>
       </c>
@@ -47620,7 +47638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>395</v>
       </c>
@@ -47640,7 +47658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>396</v>
       </c>
@@ -47660,7 +47678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>397</v>
       </c>
@@ -47680,7 +47698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>398</v>
       </c>
@@ -47700,7 +47718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>234</v>
       </c>
@@ -47720,7 +47738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>287</v>
       </c>
@@ -47740,7 +47758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>399</v>
       </c>
@@ -47760,7 +47778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
         <v>400</v>
       </c>
@@ -47780,7 +47798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>401</v>
       </c>
@@ -47800,7 +47818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>402</v>
       </c>
@@ -47820,7 +47838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>403</v>
       </c>
@@ -47840,7 +47858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
         <v>404</v>
       </c>
@@ -47860,7 +47878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
         <v>405</v>
       </c>
@@ -47880,7 +47898,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
         <v>406</v>
       </c>
@@ -47900,7 +47918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
         <v>407</v>
       </c>
@@ -47920,7 +47938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
         <v>408</v>
       </c>
@@ -47940,7 +47958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
         <v>409</v>
       </c>
@@ -47960,7 +47978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>235</v>
       </c>
@@ -47980,7 +47998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>410</v>
       </c>
@@ -48000,7 +48018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>411</v>
       </c>
@@ -48020,7 +48038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>412</v>
       </c>
@@ -48040,7 +48058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>413</v>
       </c>
@@ -48060,7 +48078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>414</v>
       </c>
@@ -48080,7 +48098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>415</v>
       </c>
@@ -48100,7 +48118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>416</v>
       </c>
@@ -48120,7 +48138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>417</v>
       </c>
@@ -48140,7 +48158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>418</v>
       </c>
@@ -48160,7 +48178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>419</v>
       </c>
@@ -48180,7 +48198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>420</v>
       </c>
@@ -48200,7 +48218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>421</v>
       </c>
@@ -48220,7 +48238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>236</v>
       </c>
@@ -48240,7 +48258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>287</v>
       </c>
@@ -48260,7 +48278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>422</v>
       </c>
@@ -48280,7 +48298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>423</v>
       </c>
@@ -48300,7 +48318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>424</v>
       </c>
@@ -48320,7 +48338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>425</v>
       </c>
@@ -48340,7 +48358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>426</v>
       </c>
@@ -48360,7 +48378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>427</v>
       </c>
@@ -48380,7 +48398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>428</v>
       </c>
@@ -48400,7 +48418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>429</v>
       </c>
@@ -48420,7 +48438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>430</v>
       </c>
@@ -48440,7 +48458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>237</v>
       </c>
@@ -48460,7 +48478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>431</v>
       </c>
@@ -48480,7 +48498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>432</v>
       </c>
@@ -48500,7 +48518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>433</v>
       </c>
@@ -48520,7 +48538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>238</v>
       </c>
@@ -48540,7 +48558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>287</v>
       </c>
@@ -48560,7 +48578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>434</v>
       </c>
@@ -48580,7 +48598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>435</v>
       </c>
@@ -48600,7 +48618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>436</v>
       </c>
@@ -48620,7 +48638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>437</v>
       </c>
@@ -48640,7 +48658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
         <v>438</v>
       </c>
@@ -48660,7 +48678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
         <v>439</v>
       </c>
@@ -48680,7 +48698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227" s="2" t="s">
         <v>440</v>
       </c>
@@ -48700,7 +48718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228" s="2" t="s">
         <v>441</v>
       </c>
@@ -48720,7 +48738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229" s="2" t="s">
         <v>239</v>
       </c>
@@ -48740,7 +48758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" s="2" t="s">
         <v>212</v>
       </c>
@@ -48760,7 +48778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" s="2" t="s">
         <v>442</v>
       </c>
@@ -48780,7 +48798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
         <v>443</v>
       </c>
@@ -48800,7 +48818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" s="2" t="s">
         <v>240</v>
       </c>
@@ -48820,7 +48838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" s="2" t="s">
         <v>212</v>
       </c>
@@ -48840,7 +48858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" s="2" t="s">
         <v>444</v>
       </c>
@@ -48860,7 +48878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" s="2" t="s">
         <v>222</v>
       </c>
@@ -48880,7 +48898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" s="2" t="s">
         <v>445</v>
       </c>
@@ -48900,7 +48918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" s="2" t="s">
         <v>446</v>
       </c>
@@ -48920,7 +48938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" s="2" t="s">
         <v>447</v>
       </c>
@@ -48940,7 +48958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>448</v>
       </c>
@@ -48960,7 +48978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" s="2" t="s">
         <v>449</v>
       </c>
@@ -48980,7 +48998,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
         <v>450</v>
       </c>
@@ -49000,7 +49018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -49020,7 +49038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
         <v>212</v>
       </c>
@@ -49040,7 +49058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
         <v>444</v>
       </c>
@@ -49060,7 +49078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
         <v>222</v>
       </c>
@@ -49080,7 +49098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" s="2" t="s">
         <v>445</v>
       </c>
@@ -49100,7 +49118,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" s="2" t="s">
         <v>446</v>
       </c>
@@ -49120,7 +49138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249" s="2" t="s">
         <v>451</v>
       </c>
@@ -49140,7 +49158,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
         <v>448</v>
       </c>
@@ -49160,7 +49178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
         <v>449</v>
       </c>
@@ -49180,7 +49198,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
         <v>450</v>
       </c>
@@ -49200,7 +49218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
         <v>242</v>
       </c>
@@ -49220,7 +49238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
         <v>212</v>
       </c>
@@ -49240,7 +49258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
         <v>444</v>
       </c>
@@ -49260,7 +49278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
         <v>222</v>
       </c>
@@ -49280,7 +49298,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
         <v>445</v>
       </c>
@@ -49300,7 +49318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
         <v>446</v>
       </c>
@@ -49320,7 +49338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
         <v>452</v>
       </c>
@@ -49340,7 +49358,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>448</v>
       </c>
@@ -49360,7 +49378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>453</v>
       </c>
@@ -49380,7 +49398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
         <v>449</v>
       </c>
@@ -49400,7 +49418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263" s="2" t="s">
         <v>450</v>
       </c>
@@ -49420,7 +49438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264" s="2" t="s">
         <v>243</v>
       </c>
@@ -49440,7 +49458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>454</v>
       </c>
@@ -49460,7 +49478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266" s="2" t="s">
         <v>444</v>
       </c>
@@ -49480,7 +49498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>222</v>
       </c>
@@ -49500,7 +49518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>445</v>
       </c>
@@ -49520,7 +49538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269" s="2" t="s">
         <v>446</v>
       </c>
@@ -49540,7 +49558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270" s="2" t="s">
         <v>448</v>
       </c>
@@ -49560,7 +49578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271" s="2" t="s">
         <v>244</v>
       </c>
@@ -49580,7 +49598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
         <v>454</v>
       </c>
@@ -49600,7 +49618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
         <v>444</v>
       </c>
@@ -49620,7 +49638,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>222</v>
       </c>
@@ -49640,7 +49658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>445</v>
       </c>
@@ -49660,7 +49678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>446</v>
       </c>
@@ -49680,7 +49698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>448</v>
       </c>
@@ -49700,7 +49718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>245</v>
       </c>
@@ -49720,7 +49738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>454</v>
       </c>
@@ -49740,7 +49758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>444</v>
       </c>
@@ -49760,7 +49778,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>222</v>
       </c>
@@ -49780,7 +49798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
         <v>445</v>
       </c>
@@ -49800,7 +49818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
         <v>446</v>
       </c>
@@ -49820,7 +49838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
         <v>448</v>
       </c>
@@ -49840,7 +49858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
         <v>246</v>
       </c>
@@ -49860,7 +49878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
         <v>454</v>
       </c>
@@ -49880,7 +49898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
         <v>444</v>
       </c>
@@ -49900,7 +49918,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>222</v>
       </c>
@@ -49920,7 +49938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289" s="2" t="s">
         <v>445</v>
       </c>
@@ -49940,7 +49958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
         <v>446</v>
       </c>
@@ -49960,7 +49978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291" s="2" t="s">
         <v>455</v>
       </c>
@@ -49980,7 +49998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
         <v>448</v>
       </c>
@@ -50000,7 +50018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293" s="2" t="s">
         <v>247</v>
       </c>
@@ -50020,7 +50038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294" s="2" t="s">
         <v>454</v>
       </c>
@@ -50040,7 +50058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295" s="2" t="s">
         <v>444</v>
       </c>
@@ -50060,7 +50078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296" s="2" t="s">
         <v>222</v>
       </c>
@@ -50080,7 +50098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297" s="2" t="s">
         <v>445</v>
       </c>
@@ -50100,7 +50118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298" s="2" t="s">
         <v>446</v>
       </c>
@@ -50120,7 +50138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299" s="2" t="s">
         <v>456</v>
       </c>
@@ -50140,7 +50158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300" s="2" t="s">
         <v>448</v>
       </c>
@@ -50160,7 +50178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301" s="2" t="s">
         <v>248</v>
       </c>
@@ -50180,7 +50198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
         <v>454</v>
       </c>
@@ -50200,7 +50218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303" s="2" t="s">
         <v>444</v>
       </c>
@@ -50220,7 +50238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304" s="2" t="s">
         <v>222</v>
       </c>
@@ -50240,7 +50258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
         <v>445</v>
       </c>
@@ -50260,7 +50278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
         <v>446</v>
       </c>
@@ -50280,7 +50298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
         <v>249</v>
       </c>
@@ -50300,7 +50318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
         <v>454</v>
       </c>
@@ -50320,7 +50338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
         <v>444</v>
       </c>
@@ -50340,7 +50358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
         <v>222</v>
       </c>
@@ -50360,7 +50378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
         <v>445</v>
       </c>
@@ -50380,7 +50398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
         <v>446</v>
       </c>
@@ -50400,7 +50418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
         <v>250</v>
       </c>
@@ -50420,7 +50438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
         <v>454</v>
       </c>
@@ -50440,7 +50458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
         <v>444</v>
       </c>
@@ -50460,7 +50478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
         <v>222</v>
       </c>
@@ -50480,7 +50498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
         <v>445</v>
       </c>
@@ -50500,7 +50518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
         <v>446</v>
       </c>
@@ -50520,7 +50538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
         <v>251</v>
       </c>
@@ -50540,7 +50558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
         <v>454</v>
       </c>
@@ -50560,7 +50578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
         <v>444</v>
       </c>
@@ -50580,7 +50598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
         <v>222</v>
       </c>
@@ -50600,7 +50618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323" s="2" t="s">
         <v>445</v>
       </c>
@@ -50620,7 +50638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324" s="2" t="s">
         <v>446</v>
       </c>
@@ -50641,8 +50659,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F324"/>
+  <autoFilter ref="A1:F324" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>